--- a/PL/assignment_3/partA/resultados.xlsx
+++ b/PL/assignment_3/partA/resultados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Desktop\Mestrado\Masters\Masters-ML\PL\assignment_3\partA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Masters-ML\PL\assignment_3\partA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22990D8-DECA-4F4C-B952-EECE5EDB9B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB674311-C9C0-4511-85FF-8066FBB4C4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="20310" windowHeight="14445" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="6480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -429,7 +429,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2109,31 +2109,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" customWidth="1"/>
+    <col min="13" max="13" width="16.5546875" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.5546875" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" customWidth="1"/>
+    <col min="17" max="17" width="16.5546875" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
+    <col min="19" max="19" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" ht="18" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
@@ -2155,7 +2155,7 @@
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="S3" s="8"/>
     </row>
-    <row r="4" spans="2:19" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -2231,7 +2231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>16.47</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="4">
         <v>25</v>
@@ -2327,7 +2327,7 @@
         <v>96.33</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="4">
         <v>49</v>
@@ -2373,7 +2373,7 @@
         <v>98.59</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
       <c r="C9" s="5">
         <v>25</v>
@@ -2469,7 +2469,7 @@
         <v>97.49</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
       <c r="C10" s="4">
         <v>49</v>
@@ -2515,7 +2515,7 @@
         <v>97.43</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2525,7 +2525,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2535,7 +2535,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="2:19" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" ht="18" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
         <v>12</v>
       </c>
@@ -2557,7 +2557,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>0</v>
       </c>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="S14" s="8"/>
     </row>
-    <row r="15" spans="2:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -2633,7 +2633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>2</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>315.60000000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
       <c r="C17" s="4">
         <v>25</v>
@@ -2729,7 +2729,7 @@
         <v>96.13</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B18" s="8"/>
       <c r="C18" s="5">
         <v>49</v>
@@ -2775,7 +2775,7 @@
         <v>327.3</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>1</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>320.7</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
       <c r="C20" s="4">
         <v>25</v>
@@ -2871,7 +2871,7 @@
         <v>324.2</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B21" s="8"/>
       <c r="C21" s="1">
         <v>49</v>
@@ -2917,7 +2917,7 @@
         <v>321.7</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2927,7 +2927,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2937,7 +2937,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:19" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" ht="18" x14ac:dyDescent="0.3">
       <c r="B24" s="9" t="s">
         <v>13</v>
       </c>
@@ -2959,7 +2959,7 @@
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>0</v>
       </c>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="S25" s="8"/>
     </row>
-    <row r="26" spans="2:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -3035,7 +3035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>2</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>77.8</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B28" s="8"/>
       <c r="C28" s="4">
         <v>25</v>
@@ -3131,7 +3131,7 @@
         <v>78.88</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B29" s="8"/>
       <c r="C29" s="4">
         <v>49</v>
@@ -3177,7 +3177,7 @@
         <v>81.33</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>1</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>78.44</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B31" s="8"/>
       <c r="C31" s="4">
         <v>25</v>
@@ -3273,7 +3273,7 @@
         <v>78.900000000000006</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B32" s="8"/>
       <c r="C32" s="5">
         <v>49</v>
@@ -3319,12 +3319,50 @@
         <v>81.14</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="L2:S2"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="L24:S24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="B2:I2"/>
@@ -3341,44 +3379,6 @@
     <mergeCell ref="B24:I24"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="L30:L32"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="L2:S2"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="L24:S24"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:Q25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PL/assignment_3/partA/resultados.xlsx
+++ b/PL/assignment_3/partA/resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Desktop\Mestrado\Masters\Masters-ML\PL\assignment_3\partA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22990D8-DECA-4F4C-B952-EECE5EDB9B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736879EB-9F6C-46E3-9D2B-8BAA5AABE309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="20310" windowHeight="14445" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -409,6 +409,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2107,10 +2111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:S33"/>
+  <dimension ref="B2:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2873,7 +2877,7 @@
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>49</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -2882,7 +2886,7 @@
       <c r="E21" s="4">
         <v>15</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>67</v>
       </c>
       <c r="G21" s="4" t="s">
@@ -2922,8 +2926,8 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
@@ -2932,8 +2936,8 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
@@ -3320,11 +3324,57 @@
       </c>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="L2:S2"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="L24:S24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="B2:I2"/>
@@ -3341,44 +3391,6 @@
     <mergeCell ref="B24:I24"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="L30:L32"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="L2:S2"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="L24:S24"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:Q25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PL/assignment_3/partA/resultados.xlsx
+++ b/PL/assignment_3/partA/resultados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Masters-ML\PL\assignment_3\partA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Desktop\Mestrado\Masters\Masters-ML\PL\assignment_3\partA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB674311-C9C0-4511-85FF-8066FBB4C4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE67270-64D7-493B-9628-BB528887D0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="6480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -429,7 +429,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2109,31 +2109,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24:S24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="12" max="12" width="23.44140625" customWidth="1"/>
-    <col min="13" max="13" width="16.5546875" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" customWidth="1"/>
-    <col min="15" max="15" width="15.5546875" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" customWidth="1"/>
-    <col min="17" max="17" width="16.5546875" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" customWidth="1"/>
-    <col min="19" max="19" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
@@ -2155,7 +2155,7 @@
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="S3" s="8"/>
     </row>
-    <row r="4" spans="2:19" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:19" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -2231,7 +2231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
@@ -2278,10 +2278,10 @@
         <v>2.77</v>
       </c>
       <c r="S5" s="4">
-        <v>16.47</v>
+        <v>97.94</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="4">
         <v>25</v>
@@ -2327,7 +2327,7 @@
         <v>96.33</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="4">
         <v>49</v>
@@ -2373,7 +2373,7 @@
         <v>98.59</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="5">
         <v>25</v>
@@ -2469,7 +2469,7 @@
         <v>97.49</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="4">
         <v>49</v>
@@ -2515,7 +2515,7 @@
         <v>97.43</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2525,7 +2525,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2535,7 +2535,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="2:19" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>12</v>
       </c>
@@ -2557,7 +2557,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>0</v>
       </c>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="S14" s="8"/>
     </row>
-    <row r="15" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:19" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -2633,7 +2633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>2</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>315.60000000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" s="4">
         <v>25</v>
@@ -2726,10 +2726,10 @@
         <v>29.68</v>
       </c>
       <c r="S17" s="4">
-        <v>96.13</v>
+        <v>311.3</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="5">
         <v>49</v>
@@ -2775,7 +2775,7 @@
         <v>327.3</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>1</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>320.7</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="4">
         <v>25</v>
@@ -2871,7 +2871,7 @@
         <v>324.2</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
       <c r="C21" s="1">
         <v>49</v>
@@ -2917,7 +2917,7 @@
         <v>321.7</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2927,7 +2927,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2937,7 +2937,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:19" ht="18" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>13</v>
       </c>
@@ -2959,7 +2959,7 @@
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
         <v>0</v>
       </c>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="S25" s="8"/>
     </row>
-    <row r="26" spans="2:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -3035,7 +3035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>2</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>77.8</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
       <c r="C28" s="4">
         <v>25</v>
@@ -3131,7 +3131,7 @@
         <v>78.88</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
       <c r="C29" s="4">
         <v>49</v>
@@ -3177,7 +3177,7 @@
         <v>81.33</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>1</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>78.44</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="8"/>
       <c r="C31" s="4">
         <v>25</v>
@@ -3273,28 +3273,28 @@
         <v>78.900000000000006</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="8"/>
       <c r="C32" s="5">
         <v>49</v>
       </c>
       <c r="D32" s="5">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="5">
-        <v>8.9069999999999996E-2</v>
+        <v>7.4870000000000001</v>
       </c>
       <c r="G32" s="5">
-        <v>104.7</v>
+        <v>64.569999999999993</v>
       </c>
       <c r="H32" s="5">
-        <v>1.7370000000000001</v>
+        <v>10.08</v>
       </c>
       <c r="I32" s="5">
-        <v>96.42</v>
+        <v>80.08</v>
       </c>
       <c r="L32" s="8"/>
       <c r="M32" s="5">
@@ -3319,9 +3319,9 @@
         <v>81.14</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="54">
